--- a/Chapter 03/images/B12258_03_7_2.xlsx
+++ b/Chapter 03/images/B12258_03_7_2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01 Bitbucket\Hands-On-Microservices-with-C-8-and-.NET-Core-3.0-Third-Edition\Chapter 03\images\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01 Bitbucket\06 PACKT\03 Hands-On-Microservices-with-C-8-and-.NET-Core-3.0-Third-Edition\Chapter 03\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{153EB2EA-68B1-413B-921E-BC0DF7F85CB3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC94683D-118F-4643-BC13-904AF3AA6E92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3ACBE581-9B69-4A2C-A533-B1700A2C84CC}"/>
   </bookViews>
@@ -33,9 +33,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Transport</t>
-  </si>
-  <si>
-    <t>Fedration</t>
   </si>
   <si>
     <t>Communication</t>
@@ -64,6 +61,9 @@
       </rPr>
       <t>(subsystem of Service Fabric)</t>
     </r>
+  </si>
+  <si>
+    <t>Federation</t>
   </si>
 </sst>
 </file>
@@ -257,6 +257,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -264,9 +267,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -596,11 +596,11 @@
   <sheetData>
     <row r="8" spans="6:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="6:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F9" s="8" t="s">
-        <v>6</v>
+      <c r="F9" s="9" t="s">
+        <v>5</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
     </row>
     <row r="10" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F10" s="1"/>
@@ -609,8 +609,8 @@
     </row>
     <row r="11" spans="6:8" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F11" s="1"/>
-      <c r="G11" s="11" t="s">
-        <v>3</v>
+      <c r="G11" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="H11" s="2"/>
     </row>
@@ -621,8 +621,8 @@
     </row>
     <row r="13" spans="6:8" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F13" s="1"/>
-      <c r="G13" s="11" t="s">
-        <v>4</v>
+      <c r="G13" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="H13" s="2"/>
     </row>
@@ -633,8 +633,8 @@
     </row>
     <row r="15" spans="6:8" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F15" s="1"/>
-      <c r="G15" s="11" t="s">
-        <v>5</v>
+      <c r="G15" s="8" t="s">
+        <v>4</v>
       </c>
       <c r="H15" s="2"/>
     </row>
@@ -645,8 +645,8 @@
     </row>
     <row r="17" spans="6:8" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F17" s="1"/>
-      <c r="G17" s="11" t="s">
-        <v>2</v>
+      <c r="G17" s="8" t="s">
+        <v>1</v>
       </c>
       <c r="H17" s="2"/>
     </row>
@@ -657,8 +657,8 @@
     </row>
     <row r="19" spans="6:8" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F19" s="1"/>
-      <c r="G19" s="11" t="s">
-        <v>1</v>
+      <c r="G19" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="H19" s="2"/>
     </row>
@@ -669,7 +669,7 @@
     </row>
     <row r="21" spans="6:8" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F21" s="1"/>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="8" t="s">
         <v>0</v>
       </c>
       <c r="H21" s="2"/>
